--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8747BCB0-2A91-45B9-B672-04D82C19D662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE40C2DB-9502-4A55-8546-1D0C7AEAFC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
     <sheet name="timeslice_def" sheetId="11" r:id="rId3"/>
+    <sheet name="re_profiles" sheetId="12" r:id="rId4"/>
+    <sheet name="load_shapes" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="97">
   <si>
     <t>UC_N</t>
   </si>
@@ -76,24 +78,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>daynight</t>
-  </si>
-  <si>
-    <t>TimeSlices</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
-  </si>
-  <si>
-    <t>Night</t>
-  </si>
-  <si>
-    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
-  </si>
-  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -293,6 +277,60 @@
   </si>
   <si>
     <t>~TimeSlices</t>
+  </si>
+  <si>
+    <t>com_fr</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>AllSaAllH</t>
+  </si>
+  <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>elc_won-CHE</t>
+  </si>
+  <si>
+    <t>g_yrfr</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>day_night</t>
+  </si>
+  <si>
+    <t>elc_buildings</t>
+  </si>
+  <si>
+    <t>elc_industry</t>
+  </si>
+  <si>
+    <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>ncap_afs</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>~TFM_INS-AT</t>
   </si>
 </sst>
 </file>
@@ -785,14 +823,14 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G5" s="3" t="str">
         <f>IF(C13=C14,"Not Required!","~UC_T: LO")</f>
-        <v>~UC_T: LO</v>
+        <v>Not Required!</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -806,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -821,7 +859,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -829,21 +867,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
+        <v>AllSaAllH</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -861,21 +899,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
+        <v>AllSaAllH</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -887,26 +925,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -934,551 +972,551 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -1488,50 +1526,243 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BAB532-55AC-44C7-9426-783D37A88994}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C12AB8E-C40F-42EF-8E2B-9483013345AB}">
   <dimension ref="B2:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE4F793-146A-41B3-AD80-FC901843D1A0}">
+  <dimension ref="B2:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4">
+        <v>0.99999979999999999</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4">
+        <v>0.999999999999855</v>
+      </c>
+      <c r="J4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4">
+        <v>1.2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B765791E-F56D-4926-BE47-A6CC9ED41749}">
+  <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" t="s">
         <v>79</v>
       </c>
-      <c r="F3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+      <c r="M3" t="s">
         <v>81</v>
       </c>
-      <c r="C4" t="s">
+      <c r="N3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="D4" t="s">
         <v>82</v>
       </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
       <c r="E4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" t="s">
         <v>82</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4">
+        <v>0.29211718079128235</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE40C2DB-9502-4A55-8546-1D0C7AEAFC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140239CD-87D0-48BE-B2F8-614593B47E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C12AB8E-C40F-42EF-8E2B-9483013345AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24223256-CBAA-4286-BE5B-A74861A1D4E1}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE4F793-146A-41B3-AD80-FC901843D1A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85ADECB2-7009-4B81-95B7-4DFD5FA59818}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B765791E-F56D-4926-BE47-A6CC9ED41749}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA4A29F-4782-4680-BB9E-A18EEAFC0221}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140239CD-87D0-48BE-B2F8-614593B47E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73A931A-47FB-4E32-94B0-D59544E4A7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24223256-CBAA-4286-BE5B-A74861A1D4E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE064286-C3CA-405E-BD5A-2FF26720E2DA}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85ADECB2-7009-4B81-95B7-4DFD5FA59818}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29946BFE-5286-483A-9608-B89A69C9EA32}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1660,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.2</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA4A29F-4782-4680-BB9E-A18EEAFC0221}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B014FD-E463-447D-89C0-1E7115F29497}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73A931A-47FB-4E32-94B0-D59544E4A7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50A799F-5969-4B8E-B2AD-A5A369F52146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE064286-C3CA-405E-BD5A-2FF26720E2DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30733238-8515-49CB-B259-DCED4B44228C}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29946BFE-5286-483A-9608-B89A69C9EA32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF91B889-2CA4-4F55-9FA4-E7B174AA3103}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1660,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B014FD-E463-447D-89C0-1E7115F29497}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46F4A44-7BBC-40D6-9DFC-25850686E33F}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50A799F-5969-4B8E-B2AD-A5A369F52146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2B8BDF-3480-4420-B43C-09BEA7A750E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30733238-8515-49CB-B259-DCED4B44228C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E832C1AD-D280-43BE-B213-A66B14DA0DCA}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF91B889-2CA4-4F55-9FA4-E7B174AA3103}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3F6C47-9095-4218-A2D2-B05266E3E34E}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46F4A44-7BBC-40D6-9DFC-25850686E33F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535791E6-8CFA-4414-9270-4B4E9420BF50}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2B8BDF-3480-4420-B43C-09BEA7A750E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D00D3E4-1A11-42C5-AEEF-4A59E2AF81EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E832C1AD-D280-43BE-B213-A66B14DA0DCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E90F14-B8CE-46F5-BDE6-3F40B5B8FE1C}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3F6C47-9095-4218-A2D2-B05266E3E34E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2FAC82-22E7-4AAC-8DBE-54FF94245AB5}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535791E6-8CFA-4414-9270-4B4E9420BF50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0723D6C-AF85-4B3B-943E-0168D7160FA2}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D00D3E4-1A11-42C5-AEEF-4A59E2AF81EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C63080-7F79-4EFA-ABE2-7842DE3FFEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E90F14-B8CE-46F5-BDE6-3F40B5B8FE1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B33EA14-375B-449B-ACAA-F132E054C84C}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2FAC82-22E7-4AAC-8DBE-54FF94245AB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B660A419-B25F-4DB3-A522-EB34873A9D06}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1660,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.2</v>
+        <v>1.1999999999999997</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0723D6C-AF85-4B3B-943E-0168D7160FA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6CFADF-5FCA-4B1B-AB3C-49853A1334DF}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C63080-7F79-4EFA-ABE2-7842DE3FFEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F39026-80FE-480E-85A4-D83D024EA6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B33EA14-375B-449B-ACAA-F132E054C84C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766E5F96-7528-4A5B-B282-837A634F7BD1}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B660A419-B25F-4DB3-A522-EB34873A9D06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849816A7-6769-4A18-8976-746831480F3A}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1660,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.1999999999999997</v>
+        <v>1.2</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6CFADF-5FCA-4B1B-AB3C-49853A1334DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791ACD54-B8C9-456C-B109-5EA532FB7562}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F39026-80FE-480E-85A4-D83D024EA6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B46BF0-94E1-403E-B938-1D73EBD4809A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766E5F96-7528-4A5B-B282-837A634F7BD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AECD865-C5D2-4AA8-B946-74356AC6DB70}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849816A7-6769-4A18-8976-746831480F3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8195B50C-4EB6-4B8B-BA33-82BBCFD0E958}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1660,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.2</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791ACD54-B8C9-456C-B109-5EA532FB7562}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76026132-7F7A-4329-9052-54EBFA7F818A}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B46BF0-94E1-403E-B938-1D73EBD4809A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5624E269-517E-43FE-B6A1-AC478630B68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AECD865-C5D2-4AA8-B946-74356AC6DB70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548D49FA-FC53-468D-8E3A-D2A7489EE8B5}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8195B50C-4EB6-4B8B-BA33-82BBCFD0E958}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC144938-E069-4426-A983-DC535B679A4F}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1660,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76026132-7F7A-4329-9052-54EBFA7F818A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDEFCB1-547B-49A8-BBD3-29D566333742}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5624E269-517E-43FE-B6A1-AC478630B68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252D877D-1CCB-4EC5-AF9C-0CDCB62B5198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548D49FA-FC53-468D-8E3A-D2A7489EE8B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EC28B4-A80D-468A-8F05-1B7930441707}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC144938-E069-4426-A983-DC535B679A4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355D0BA0-E1AC-4441-9635-5EC4F9166ECA}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1660,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.2</v>
+        <v>1.1999999999999997</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDEFCB1-547B-49A8-BBD3-29D566333742}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EFF0FE-1711-449A-B2D3-F68524732812}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252D877D-1CCB-4EC5-AF9C-0CDCB62B5198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301F4D4A-B7D0-4525-9D87-0F0212D730E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EC28B4-A80D-468A-8F05-1B7930441707}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432C073F-3751-4F81-9292-E0CC38543D36}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355D0BA0-E1AC-4441-9635-5EC4F9166ECA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1518553C-B38A-4004-9565-582D40922D46}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1660,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.1999999999999997</v>
+        <v>1.2</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EFF0FE-1711-449A-B2D3-F68524732812}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86AEF2C-F259-4FA7-803C-DE75E64BA13D}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301F4D4A-B7D0-4525-9D87-0F0212D730E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F76DC4-EAE7-4B36-BF4A-E933CB502C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432C073F-3751-4F81-9292-E0CC38543D36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97EFD4F-A379-42A4-A394-2E5C4F8F0F62}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1518553C-B38A-4004-9565-582D40922D46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A605EAD-0204-4067-94EA-1A02E88CE783}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1660,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.2</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86AEF2C-F259-4FA7-803C-DE75E64BA13D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A582CD-60E7-4B3D-A66F-644527AD9E80}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F76DC4-EAE7-4B36-BF4A-E933CB502C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22ED47D-89E8-417F-8C5A-A4F862B07BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
     <sheet name="timeslice_def" sheetId="11" r:id="rId3"/>
-    <sheet name="re_profiles" sheetId="12" r:id="rId4"/>
-    <sheet name="load_shapes" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
   <si>
     <t>UC_N</t>
   </si>
@@ -78,6 +76,24 @@
     <t>day</t>
   </si>
   <si>
+    <t>daynight</t>
+  </si>
+  <si>
+    <t>TimeSlices</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
+  </si>
+  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -277,60 +293,6 @@
   </si>
   <si>
     <t>~TimeSlices</t>
-  </si>
-  <si>
-    <t>com_fr</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>commodity</t>
-  </si>
-  <si>
-    <t>AllSaAllH</t>
-  </si>
-  <si>
-    <t>IMPNRGZ</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE</t>
-  </si>
-  <si>
-    <t>~TFM_DINS-AT</t>
-  </si>
-  <si>
-    <t>elc_won-CHE</t>
-  </si>
-  <si>
-    <t>g_yrfr</t>
-  </si>
-  <si>
-    <t>elc_roadtransport</t>
-  </si>
-  <si>
-    <t>day_night</t>
-  </si>
-  <si>
-    <t>elc_buildings</t>
-  </si>
-  <si>
-    <t>elc_industry</t>
-  </si>
-  <si>
-    <t>com_pkflx</t>
-  </si>
-  <si>
-    <t>ncap_afs</t>
-  </si>
-  <si>
-    <t>pset_ci</t>
-  </si>
-  <si>
-    <t>hydro</t>
-  </si>
-  <si>
-    <t>~TFM_INS-AT</t>
   </si>
 </sst>
 </file>
@@ -823,14 +785,14 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G5" s="3" t="str">
         <f>IF(C13=C14,"Not Required!","~UC_T: LO")</f>
-        <v>Not Required!</v>
+        <v>~UC_T: LO</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -844,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -859,7 +821,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -867,21 +829,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>AllSaAllH</v>
+        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -899,21 +861,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>AllSaAllH</v>
+        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -925,26 +887,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -972,551 +934,551 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -1526,243 +1488,50 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97EFD4F-A379-42A4-A394-2E5C4F8F0F62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C68129-C625-45DA-8D4E-18B714D7438F}">
   <dimension ref="B2:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A605EAD-0204-4067-94EA-1A02E88CE783}">
-  <dimension ref="B2:O4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" t="s">
-        <v>93</v>
-      </c>
-      <c r="O3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
         <v>82</v>
-      </c>
-      <c r="C4">
-        <v>0.99999979999999999</v>
       </c>
       <c r="D4" t="s">
         <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
         <v>82</v>
-      </c>
-      <c r="I4">
-        <v>0.999999999999855</v>
-      </c>
-      <c r="J4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4">
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="O4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A582CD-60E7-4B3D-A66F-644527AD9E80}">
-  <dimension ref="B2:O5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4">
-        <v>0.29211718079128235</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22ED47D-89E8-417F-8C5A-A4F862B07BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D7F396-F180-45E2-A32E-11F47453AC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1488,7 +1488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C68129-C625-45DA-8D4E-18B714D7438F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E29FB4-4042-42B3-8BBB-41945220345C}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D7F396-F180-45E2-A32E-11F47453AC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B17ED28-581A-4D5A-AD37-4362B4656C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="86">
   <si>
     <t>UC_N</t>
   </si>
@@ -268,6 +268,9 @@
     <t>timeslice</t>
   </si>
   <si>
+    <t>~TimeSlices</t>
+  </si>
+  <si>
     <t>season</t>
   </si>
   <si>
@@ -292,14 +295,14 @@
     <t>AllH</t>
   </si>
   <si>
-    <t>~TimeSlices</t>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,8 +356,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,8 +407,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -419,6 +467,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -430,7 +508,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -446,6 +524,12 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -468,6 +552,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A4F41D-4175-1961-16AE-AE537807968D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1488,53 +1627,72 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E29FB4-4042-42B3-8BBB-41945220345C}">
-  <dimension ref="B2:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E08FC7-187A-49F2-9007-BFFD49D87034}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="6" width="10.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="1" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E11" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F11" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" t="s">
-        <v>82</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B17ED28-581A-4D5A-AD37-4362B4656C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A186F2D-9761-454D-9B23-38305A8550AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
     <sheet name="timeslice_def" sheetId="11" r:id="rId3"/>
+    <sheet name="re_profiles" sheetId="12" r:id="rId4"/>
+    <sheet name="load_shapes" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="174">
   <si>
     <t>UC_N</t>
   </si>
@@ -76,24 +78,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>daynight</t>
-  </si>
-  <si>
-    <t>TimeSlices</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
-  </si>
-  <si>
-    <t>Night</t>
-  </si>
-  <si>
-    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
-  </si>
-  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -296,12 +280,298 @@
   </si>
   <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>com_fr</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>AllSaAllH</t>
+  </si>
+  <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0016</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0016</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0000</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0001</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0010</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0011</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0012</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0013</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0014</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0015</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0016</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0017</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0018</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0019</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0002</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0020</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0021</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0022</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0023</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0024</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0025</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0003</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0004</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0005</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0006</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0007</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0008</t>
+  </si>
+  <si>
+    <t>elc_wof-CHE_0009</t>
+  </si>
+  <si>
+    <t>g_yrfr</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>day_night</t>
+  </si>
+  <si>
+    <t>elc_buildings</t>
+  </si>
+  <si>
+    <t>elc_industry</t>
+  </si>
+  <si>
+    <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>~TFM_INS-AT</t>
+  </si>
+  <si>
+    <t>ncap_afs</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>hydro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -508,7 +778,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -524,12 +794,22 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -574,7 +854,117 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A4F41D-4175-1961-16AE-AE537807968D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE0C92B-3C02-10DC-C626-AA32C467EDA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296863</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{044BA75D-3400-FAFC-467B-7CD9362D3E15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296863</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3568374A-29CD-AF84-8CE9-6CDDECE7E733}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -924,14 +1314,14 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G5" s="3" t="str">
         <f>IF(C13=C14,"Not Required!","~UC_T: LO")</f>
-        <v>~UC_T: LO</v>
+        <v>Not Required!</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -945,7 +1335,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -960,7 +1350,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -968,21 +1358,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
+        <v>AllSaAllH</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1000,21 +1390,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
+        <v>AllSaAllH</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1026,26 +1416,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1073,551 +1463,551 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -1627,10 +2017,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E08FC7-187A-49F2-9007-BFFD49D87034}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEFCD3D-3E4C-4C8D-BEAD-B59D0193F78D}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1638,54 +2030,1277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="A1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="13" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6458638D-9BBE-4CA0-8301-B4702E938250}">
+  <dimension ref="A1:S36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.59765625" customWidth="1"/>
+    <col min="7" max="7" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.59765625" customWidth="1"/>
+    <col min="17" max="19" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="G9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="14" t="s">
+      <c r="C10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="G10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="S10" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B11" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="C11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.99999999999983424</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0.999999999999866</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" s="17">
+        <v>0</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" s="24">
+        <v>1.2</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.99999999999983358</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0.99999999999985978</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" s="18">
+        <v>0</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B13" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.99999999999984279</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0.99999999999987377</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" s="17">
+        <v>0</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B14" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.99999999999982836</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0.99999999999990385</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" s="18">
+        <v>0</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.99999999999982958</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0.99999999999986977</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" s="17">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B16" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.99999999999982903</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="16">
+        <v>0.99999999999989064</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" s="18">
+        <v>0</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0.99999999999983447</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0.99999999999987221</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" s="17">
+        <v>0</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.99999999999983291</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="16">
+        <v>0.99999999999991784</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N18" s="18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B19" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.99999999999982792</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="14">
+        <v>0.99999999999986933</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N19" s="17">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B20" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0.99999999999983002</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0.99999999999991995</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N20" s="18">
+        <v>0</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.99999999999984324</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="14">
+        <v>0.99999999999987332</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N21" s="17">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B22" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0.99999999999983391</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0.99999999999990064</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" s="18">
+        <v>0</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B23" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.99999999999983569</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="14">
+        <v>0.99999999999985534</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23" s="17">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B24" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0.99999999999982525</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0.99999999999986489</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N24" s="18">
+        <v>0</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B25" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.99999999999983646</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="14">
+        <v>0.99999999999992673</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N25" s="17">
+        <v>0</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B26" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0.99999999999983991</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="16">
+        <v>0.99999999999988953</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N26" s="18">
+        <v>0</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B27" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0.99999999999982503</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="14">
+        <v>0.99999999999990097</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N27" s="17">
+        <v>0</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B28" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0.99999999999982259</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="16">
+        <v>0.99999999999987599</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N28" s="18">
+        <v>0</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B29" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="14">
+        <v>0.9999999999998328</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" s="14">
+        <v>0.99999999999990141</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N29" s="17">
+        <v>0</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B30" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="16">
+        <v>0.99999999999982758</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="16">
+        <v>0.99999999999989664</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N30" s="18">
+        <v>0</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B31" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0.99999999999983291</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="14">
+        <v>0.99999999999987943</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N31" s="17">
+        <v>0</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B32" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0.99999999999984068</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32" s="16">
+        <v>0.99999999999986755</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N32" s="18">
+        <v>0</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B33" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="14">
+        <v>0.99999999999984546</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33" s="14">
+        <v>0.99999999999986544</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N33" s="17">
+        <v>0</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B34" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="16">
+        <v>0.99999999999982669</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="16">
+        <v>0.99999999999988098</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N34" s="18">
+        <v>0</v>
+      </c>
+      <c r="O34" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="14">
+        <v>0.99999999999983402</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="14">
+        <v>0.99999999999987921</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N35" s="17">
+        <v>0</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B36" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="16">
+        <v>0.99999999999983258</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="16">
+        <v>0.9999999999998801</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N36" s="18">
+        <v>0</v>
+      </c>
+      <c r="O36" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE294536-F886-4670-ADCF-DE6B2268AC55}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.59765625" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>83</v>
+      <c r="D10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B11" s="19">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0.29211718079128235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="G12" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="20">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
